--- a/doc/2023年下期/【画面設計】タレント登録画面（TalentToroku.vue).xlsx
+++ b/doc/2023年下期/【画面設計】タレント登録画面（TalentToroku.vue).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="168">
   <si>
     <t>Java課題(2023下期）</t>
   </si>
@@ -179,7 +179,7 @@
     <t>5.【フォーム情報】</t>
   </si>
   <si>
-    <t>5.【DB情報】</t>
+    <t>6.【DB情報】</t>
   </si>
   <si>
     <t>（バリデーションチェックのエラー表示部）</t>
@@ -343,6 +343,11 @@
   </si>
   <si>
     <t>1. 処理一覧</t>
+  </si>
+  <si>
+    <t>前画面からのタレントIDが未設定の場合は、新規登録モード、前画面からのタレントIDが設定済の場合は、更新モードとする。
+新規登録モード時、更新モード時で初期表示の画面の内容を切り分ける。詳細は【フォーム情報】参照。
+また、更新モードには、タレントに対して、バリデーションチェックを行い、タレント情報を取得して画面へ設定する。</t>
   </si>
   <si>
     <t>クリック時に、画面の内容をテーブル「タレントマスタ」へ新規登録処理を行う。</t>
@@ -4359,7 +4364,7 @@
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
     </row>
-    <row r="55" ht="100.5" customHeight="1">
+    <row r="55" ht="97.5" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="12" t="s">
         <v>33</v>
@@ -4524,7 +4529,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="6" t="s">
+      <c r="G60" s="41" t="s">
         <v>42</v>
       </c>
       <c r="H60" s="6"/>
@@ -31013,7 +31018,7 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="61"/>
     </row>
-    <row r="6" ht="151.5" customHeight="1">
+    <row r="6" ht="138.0" customHeight="1">
       <c r="A6" s="61"/>
       <c r="B6" s="64">
         <v>1.0</v>
@@ -31022,7 +31027,7 @@
         <v>33</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="61"/>
@@ -31081,7 +31086,7 @@
       <c r="Y7" s="61"/>
       <c r="Z7" s="61"/>
     </row>
-    <row r="8" ht="54.0" customHeight="1">
+    <row r="8" ht="34.5" customHeight="1">
       <c r="A8" s="61"/>
       <c r="B8" s="64">
         <v>3.0</v>
@@ -31090,7 +31095,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E8" s="43"/>
       <c r="F8" s="61"/>
@@ -31115,7 +31120,7 @@
       <c r="Y8" s="61"/>
       <c r="Z8" s="61"/>
     </row>
-    <row r="9" ht="46.5" customHeight="1">
+    <row r="9" ht="36.75" customHeight="1">
       <c r="A9" s="61"/>
       <c r="B9" s="64">
         <v>4.0</v>
@@ -31124,7 +31129,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E9" s="43"/>
       <c r="F9" s="61"/>
@@ -31180,7 +31185,7 @@
     <row r="11" ht="18.75" customHeight="1">
       <c r="A11" s="67"/>
       <c r="B11" s="68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C11" s="67"/>
       <c r="D11" s="67"/>
@@ -31238,7 +31243,7 @@
     <row r="13" ht="18.75" customHeight="1">
       <c r="A13" s="67"/>
       <c r="B13" s="68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C13" s="67"/>
       <c r="D13" s="67"/>
@@ -31268,7 +31273,7 @@
     <row r="14" ht="18.75" customHeight="1">
       <c r="A14" s="67"/>
       <c r="B14" s="68" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" s="67"/>
       <c r="D14" s="67"/>
@@ -31326,7 +31331,7 @@
     <row r="16" ht="18.75" customHeight="1">
       <c r="A16" s="67"/>
       <c r="B16" s="68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C16" s="67"/>
       <c r="D16" s="67"/>
@@ -31357,7 +31362,7 @@
       <c r="A17" s="67"/>
       <c r="B17" s="67"/>
       <c r="C17" s="68" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D17" s="67"/>
       <c r="E17" s="67"/>
@@ -31414,7 +31419,7 @@
     <row r="19" ht="18.75" customHeight="1">
       <c r="A19" s="67"/>
       <c r="B19" s="68" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C19" s="67"/>
       <c r="D19" s="67"/>
@@ -31445,7 +31450,7 @@
       <c r="A20" s="67"/>
       <c r="B20" s="67"/>
       <c r="C20" s="68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D20" s="67"/>
       <c r="E20" s="67"/>
@@ -31475,7 +31480,7 @@
       <c r="A21" s="67"/>
       <c r="B21" s="67"/>
       <c r="C21" s="69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D21" s="70"/>
       <c r="E21" s="67"/>
@@ -31504,10 +31509,10 @@
     <row r="22" ht="18.75" customHeight="1">
       <c r="A22" s="67"/>
       <c r="B22" s="71" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D22" s="72" t="s">
         <v>78</v>
@@ -31542,7 +31547,7 @@
         <v>1.0</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E23" s="67"/>
       <c r="F23" s="67"/>
@@ -31574,7 +31579,7 @@
         <v>2.0</v>
       </c>
       <c r="D24" s="77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E24" s="67"/>
       <c r="F24" s="67"/>
@@ -31606,7 +31611,7 @@
         <v>3.0</v>
       </c>
       <c r="D25" s="77" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E25" s="67"/>
       <c r="F25" s="67"/>
@@ -31638,7 +31643,7 @@
         <v>4.0</v>
       </c>
       <c r="D26" s="77" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E26" s="67"/>
       <c r="F26" s="67"/>
@@ -31670,7 +31675,7 @@
         <v>5.0</v>
       </c>
       <c r="D27" s="77" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E27" s="67"/>
       <c r="F27" s="67"/>
@@ -31726,7 +31731,7 @@
     <row r="29" ht="18.75" customHeight="1">
       <c r="A29" s="67"/>
       <c r="B29" s="68" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C29" s="67"/>
       <c r="D29" s="67"/>
@@ -31785,7 +31790,7 @@
       <c r="A31" s="34"/>
       <c r="B31" s="34"/>
       <c r="C31" s="78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
@@ -31815,12 +31820,12 @@
       <c r="A32" s="34"/>
       <c r="B32" s="34"/>
       <c r="C32" s="78" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D32" s="34"/>
       <c r="E32" s="79"/>
       <c r="F32" s="79" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G32" s="34"/>
       <c r="H32" s="34"/>
@@ -31847,11 +31852,11 @@
       <c r="A33" s="34"/>
       <c r="B33" s="34"/>
       <c r="C33" s="78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33" s="34"/>
       <c r="E33" s="80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
@@ -31907,7 +31912,7 @@
       <c r="A35" s="34"/>
       <c r="B35" s="34"/>
       <c r="C35" s="81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="34"/>
       <c r="E35" s="34"/>
@@ -31937,7 +31942,7 @@
       <c r="A36" s="34"/>
       <c r="B36" s="34"/>
       <c r="C36" s="81" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="34"/>
       <c r="E36" s="34"/>
@@ -31995,7 +32000,7 @@
       <c r="A38" s="67"/>
       <c r="B38" s="67"/>
       <c r="C38" s="82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="67"/>
       <c r="E38" s="67"/>
@@ -32025,7 +32030,7 @@
       <c r="A39" s="67"/>
       <c r="B39" s="67"/>
       <c r="C39" s="68" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" s="67"/>
       <c r="E39" s="67"/>
@@ -32083,7 +32088,7 @@
       <c r="A41" s="67"/>
       <c r="B41" s="67"/>
       <c r="C41" s="82" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D41" s="67"/>
       <c r="E41" s="67"/>
@@ -32141,7 +32146,7 @@
       <c r="A43" s="67"/>
       <c r="B43" s="67"/>
       <c r="C43" s="82" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D43" s="67"/>
       <c r="E43" s="67"/>
@@ -32198,7 +32203,7 @@
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="67"/>
       <c r="B45" s="68" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C45" s="67"/>
       <c r="D45" s="67"/>
@@ -32257,7 +32262,7 @@
       <c r="A47" s="67"/>
       <c r="B47" s="67"/>
       <c r="C47" s="68" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D47" s="67"/>
       <c r="E47" s="67"/>
@@ -32315,7 +32320,7 @@
       <c r="A49" s="67"/>
       <c r="B49" s="67"/>
       <c r="C49" s="68" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D49" s="67"/>
       <c r="E49" s="67"/>
@@ -32372,7 +32377,7 @@
     <row r="51" ht="18.75" customHeight="1">
       <c r="A51" s="67"/>
       <c r="B51" s="68" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C51" s="67"/>
       <c r="D51" s="67"/>
@@ -32430,7 +32435,7 @@
     <row r="53" ht="18.75" customHeight="1">
       <c r="A53" s="67"/>
       <c r="B53" s="68" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" s="67"/>
       <c r="D53" s="67"/>
@@ -32488,7 +32493,7 @@
     <row r="55" ht="18.75" customHeight="1">
       <c r="A55" s="67"/>
       <c r="B55" s="68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C55" s="67"/>
       <c r="D55" s="67"/>
@@ -32518,7 +32523,7 @@
     <row r="56" ht="18.75" customHeight="1">
       <c r="A56" s="34"/>
       <c r="B56" s="83" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C56" s="84"/>
       <c r="D56" s="84"/>
@@ -32549,11 +32554,11 @@
       <c r="A57" s="34"/>
       <c r="B57" s="84"/>
       <c r="C57" s="83" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D57" s="84"/>
       <c r="E57" s="83" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F57" s="84"/>
       <c r="G57" s="84"/>
@@ -32581,11 +32586,11 @@
       <c r="A58" s="34"/>
       <c r="B58" s="84"/>
       <c r="C58" s="78" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D58" s="84"/>
       <c r="E58" s="78" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F58" s="84"/>
       <c r="G58" s="84"/>
@@ -32613,11 +32618,11 @@
       <c r="A59" s="34"/>
       <c r="B59" s="84"/>
       <c r="C59" s="78" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D59" s="84"/>
       <c r="E59" s="83" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F59" s="84"/>
       <c r="G59" s="84"/>
@@ -32645,11 +32650,11 @@
       <c r="A60" s="34"/>
       <c r="B60" s="84"/>
       <c r="C60" s="78" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D60" s="84"/>
       <c r="E60" s="83" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F60" s="84"/>
       <c r="G60" s="84"/>
@@ -32677,11 +32682,11 @@
       <c r="A61" s="34"/>
       <c r="B61" s="84"/>
       <c r="C61" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D61" s="84"/>
       <c r="E61" s="83" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F61" s="84"/>
       <c r="G61" s="84"/>
@@ -32737,7 +32742,7 @@
       <c r="A63" s="34"/>
       <c r="B63" s="84"/>
       <c r="C63" s="83" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D63" s="84"/>
       <c r="E63" s="84"/>
@@ -32767,7 +32772,7 @@
       <c r="A64" s="34"/>
       <c r="B64" s="84"/>
       <c r="C64" s="83" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D64" s="84"/>
       <c r="E64" s="84"/>
@@ -32824,7 +32829,7 @@
     <row r="66" ht="18.75" customHeight="1">
       <c r="A66" s="67"/>
       <c r="B66" s="82" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C66" s="67"/>
       <c r="D66" s="67"/>
@@ -32854,7 +32859,7 @@
     <row r="67" ht="18.75" customHeight="1">
       <c r="A67" s="67"/>
       <c r="B67" s="68" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C67" s="67"/>
       <c r="D67" s="67"/>
@@ -32885,7 +32890,7 @@
       <c r="A68" s="67"/>
       <c r="B68" s="67"/>
       <c r="C68" s="85" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D68" s="85"/>
       <c r="E68" s="67"/>
@@ -32915,10 +32920,10 @@
       <c r="A69" s="67"/>
       <c r="B69" s="67"/>
       <c r="C69" s="85" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D69" s="85" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E69" s="67"/>
       <c r="F69" s="67"/>
@@ -32947,10 +32952,10 @@
       <c r="A70" s="67"/>
       <c r="B70" s="67"/>
       <c r="C70" s="85" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D70" s="85" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E70" s="67"/>
       <c r="F70" s="67"/>
@@ -32979,10 +32984,10 @@
       <c r="A71" s="67"/>
       <c r="B71" s="67"/>
       <c r="C71" s="85" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D71" s="85" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E71" s="67"/>
       <c r="F71" s="67"/>
@@ -33011,10 +33016,10 @@
       <c r="A72" s="67"/>
       <c r="B72" s="67"/>
       <c r="C72" s="85" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D72" s="85" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E72" s="67"/>
       <c r="F72" s="67"/>
@@ -33043,10 +33048,10 @@
       <c r="A73" s="67"/>
       <c r="B73" s="67"/>
       <c r="C73" s="85" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D73" s="85" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E73" s="67"/>
       <c r="F73" s="67"/>
@@ -33075,10 +33080,10 @@
       <c r="A74" s="67"/>
       <c r="B74" s="67"/>
       <c r="C74" s="85" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D74" s="85" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E74" s="67"/>
       <c r="F74" s="67"/>
@@ -33107,10 +33112,10 @@
       <c r="A75" s="67"/>
       <c r="B75" s="67"/>
       <c r="C75" s="85" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D75" s="85" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E75" s="67"/>
       <c r="F75" s="67"/>
@@ -33166,7 +33171,7 @@
     <row r="77" ht="18.75" customHeight="1">
       <c r="A77" s="67"/>
       <c r="B77" s="82" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C77" s="67"/>
       <c r="D77" s="67"/>
@@ -33224,7 +33229,7 @@
     <row r="79" ht="18.75" customHeight="1">
       <c r="A79" s="67"/>
       <c r="B79" s="82" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C79" s="67"/>
       <c r="D79" s="67"/>
@@ -33282,7 +33287,7 @@
     <row r="81" ht="18.75" customHeight="1">
       <c r="A81" s="67"/>
       <c r="B81" s="68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C81" s="67"/>
       <c r="D81" s="67"/>
@@ -33312,7 +33317,7 @@
     <row r="82" ht="18.75" customHeight="1">
       <c r="A82" s="34"/>
       <c r="B82" s="86" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C82" s="34"/>
       <c r="D82" s="34"/>
@@ -33343,11 +33348,11 @@
       <c r="A83" s="34"/>
       <c r="B83" s="34"/>
       <c r="C83" s="81" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D83" s="34"/>
       <c r="E83" s="81" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F83" s="34"/>
       <c r="G83" s="34"/>
@@ -33375,11 +33380,11 @@
       <c r="A84" s="34"/>
       <c r="B84" s="34"/>
       <c r="C84" s="86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D84" s="34"/>
       <c r="E84" s="86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
@@ -33407,11 +33412,11 @@
       <c r="A85" s="34"/>
       <c r="B85" s="34"/>
       <c r="C85" s="86" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D85" s="34"/>
       <c r="E85" s="86" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
@@ -33439,11 +33444,11 @@
       <c r="A86" s="34"/>
       <c r="B86" s="34"/>
       <c r="C86" s="86" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D86" s="34"/>
       <c r="E86" s="81" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
@@ -33471,11 +33476,11 @@
       <c r="A87" s="34"/>
       <c r="B87" s="34"/>
       <c r="C87" s="86" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D87" s="34"/>
       <c r="E87" s="81" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F87" s="34"/>
       <c r="G87" s="34"/>
@@ -33503,11 +33508,11 @@
       <c r="A88" s="34"/>
       <c r="B88" s="34"/>
       <c r="C88" s="86" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D88" s="34"/>
       <c r="E88" s="81" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F88" s="34"/>
       <c r="G88" s="34"/>
@@ -33563,7 +33568,7 @@
       <c r="A90" s="34"/>
       <c r="B90" s="34"/>
       <c r="C90" s="81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D90" s="34"/>
       <c r="E90" s="34"/>
@@ -33593,7 +33598,7 @@
       <c r="A91" s="34"/>
       <c r="B91" s="34"/>
       <c r="C91" s="81" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D91" s="34"/>
       <c r="E91" s="34"/>
@@ -33650,7 +33655,7 @@
     <row r="93" ht="18.75" customHeight="1">
       <c r="A93" s="67"/>
       <c r="B93" s="82" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C93" s="67"/>
       <c r="D93" s="67"/>
@@ -33680,7 +33685,7 @@
     <row r="94" ht="18.75" customHeight="1">
       <c r="A94" s="67"/>
       <c r="B94" s="68" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C94" s="67"/>
       <c r="D94" s="67"/>
@@ -33711,7 +33716,7 @@
       <c r="A95" s="67"/>
       <c r="B95" s="67"/>
       <c r="C95" s="87" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D95" s="87"/>
       <c r="E95" s="67"/>
@@ -33741,10 +33746,10 @@
       <c r="A96" s="67"/>
       <c r="B96" s="67"/>
       <c r="C96" s="87" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D96" s="87" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E96" s="67"/>
       <c r="F96" s="67"/>
@@ -33773,10 +33778,10 @@
       <c r="A97" s="67"/>
       <c r="B97" s="67"/>
       <c r="C97" s="87" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D97" s="87" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E97" s="67"/>
       <c r="F97" s="67"/>
@@ -33805,10 +33810,10 @@
       <c r="A98" s="67"/>
       <c r="B98" s="67"/>
       <c r="C98" s="87" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D98" s="87" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E98" s="67"/>
       <c r="F98" s="67"/>
@@ -33837,10 +33842,10 @@
       <c r="A99" s="67"/>
       <c r="B99" s="67"/>
       <c r="C99" s="87" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D99" s="88" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E99" s="67"/>
       <c r="F99" s="67"/>
@@ -33869,10 +33874,10 @@
       <c r="A100" s="67"/>
       <c r="B100" s="67"/>
       <c r="C100" s="87" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D100" s="88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E100" s="67"/>
       <c r="F100" s="67"/>
@@ -33901,10 +33906,10 @@
       <c r="A101" s="67"/>
       <c r="B101" s="67"/>
       <c r="C101" s="87" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D101" s="87" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E101" s="67"/>
       <c r="F101" s="67"/>
@@ -33960,7 +33965,7 @@
     <row r="103" ht="18.75" customHeight="1">
       <c r="A103" s="67"/>
       <c r="B103" s="82" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C103" s="67"/>
       <c r="D103" s="67"/>
@@ -34018,7 +34023,7 @@
     <row r="105" ht="18.75" customHeight="1">
       <c r="A105" s="67"/>
       <c r="B105" s="82" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C105" s="67"/>
       <c r="D105" s="67"/>
